--- a/CheckList/Monthly/Monthly Check List.xlsx
+++ b/CheckList/Monthly/Monthly Check List.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF26D89B-724E-4428-A9C2-E581C7A3634C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AC6609-90E5-4756-B4BD-F3D6DF7872A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -463,7 +463,7 @@
     <col min="3" max="3" width="16.90625" customWidth="1"/>
     <col min="4" max="4" width="11.1796875" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -480,10 +480,10 @@
         <v>45566</v>
       </c>
       <c r="E1" s="5">
-        <v>45601</v>
+        <v>45602</v>
       </c>
       <c r="F1" s="5">
-        <v>45629</v>
+        <v>45630</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">

--- a/CheckList/Monthly/Monthly Check List.xlsx
+++ b/CheckList/Monthly/Monthly Check List.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AC6609-90E5-4756-B4BD-F3D6DF7872A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1BED48-23DD-41FB-A739-897CFB656B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>Description</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Status of Pending Exam Report - Share with Br.Ashiq</t>
   </si>
   <si>
-    <t>Class of the Month -  share to Br.Ashiq</t>
-  </si>
-  <si>
     <t>List of Ir-regular Student - Monthly Report share in Group</t>
   </si>
   <si>
@@ -69,6 +66,15 @@
   </si>
   <si>
     <t>Status of Pending Exam Followup with Class Nazim (as per MOM)</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Monthly Class Performance -  share to Br.Ashiq</t>
   </si>
 </sst>
 </file>
@@ -454,7 +460,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -499,7 +505,9 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -513,9 +521,11 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -531,7 +541,9 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -547,7 +559,9 @@
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -563,7 +577,9 @@
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -579,7 +595,9 @@
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -587,13 +605,17 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -601,13 +623,17 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -615,7 +641,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1</v>
@@ -623,7 +649,9 @@
       <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -631,10 +659,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
